--- a/0_DOC/Femto 구매 list.xlsx
+++ b/0_DOC/Femto 구매 list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="장비" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="0312" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
   <si>
     <t>오실로스코프</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,16 +120,483 @@
   <si>
     <t>새제품</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF MCU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>P_value</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>V_PN</t>
+  </si>
+  <si>
+    <t>V_Desc</t>
+  </si>
+  <si>
+    <t>Q'ty</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>P_size</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>PCB Decal</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>1.6x0.8</t>
+  </si>
+  <si>
+    <t>LED-1608</t>
+  </si>
+  <si>
+    <t>19-21/R6C-AP1Q2/3T</t>
+  </si>
+  <si>
+    <t>EVERLIGHT</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 Red</t>
+  </si>
+  <si>
+    <t>LED1,LED4</t>
+  </si>
+  <si>
+    <t>1.0mm</t>
+  </si>
+  <si>
+    <t>19-217/W1D-APQHY/3T</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 White</t>
+  </si>
+  <si>
+    <t>LED2,LED3</t>
+  </si>
+  <si>
+    <t>0.4mm</t>
+  </si>
+  <si>
+    <t>19-213/G6C-AN1P2 /3T</t>
+  </si>
+  <si>
+    <t>Backlight LED SMD 1608 Green</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>0.6mm</t>
+  </si>
+  <si>
+    <t>LQM2HPZ2R2MG0</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 1.3A 80 MOHM SMD, SRF 40MHz</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>2.5X2.0</t>
+  </si>
+  <si>
+    <t>1.00mm</t>
+  </si>
+  <si>
+    <t>STM32F070RBT6</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M0 Value line, 128 Kbytes Flash, 48 MHz CPU, SMD/SMT</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>1.60mm</t>
+  </si>
+  <si>
+    <t>LM3671MF-3.3</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>2-MHz, 600-mA Step-Down DC-DC Converter</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>3.05x3.0</t>
+  </si>
+  <si>
+    <t>1.45mm</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>12.7x4.83</t>
+  </si>
+  <si>
+    <t>5.84mm</t>
+  </si>
+  <si>
+    <t>53047-0210</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>4.2mm</t>
+  </si>
+  <si>
+    <t>HEADER_20X2</t>
+  </si>
+  <si>
+    <t>57102-G06-20LF</t>
+  </si>
+  <si>
+    <t>J9,J10</t>
+  </si>
+  <si>
+    <t>42x4.0</t>
+  </si>
+  <si>
+    <t>5.5mm</t>
+  </si>
+  <si>
+    <t>YST-1502 SMD</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>TACH Switch 8.0x3.7, T=2.5mm SMD</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>8.0x3.7</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>YST-1502</t>
+  </si>
+  <si>
+    <t>ABS07-120-32.768KHz-T</t>
+  </si>
+  <si>
+    <t>ABRACON</t>
+  </si>
+  <si>
+    <t>32.768KHz Crystal 6pF 20PPM</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>3.2x1.5</t>
+  </si>
+  <si>
+    <t>0.9mm</t>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>5.0x3.2</t>
+  </si>
+  <si>
+    <t>1.1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design Part Type count: 13</t>
+  </si>
+  <si>
+    <t>Set 수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cost</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매수량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매금액</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICBanQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P005609821 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control MCU에서도 사용 : 2배 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005609820</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control MCU에서도 사용 : 2배 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005609818</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQM2HPZ2R2MG0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008172717</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control MCU, Pipette에서도 사용 : 4배 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32F070RBT6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007475431</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette에서도 사용 : 10ea 추가 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM3671MF-3.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002182619</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54102-S08-05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm pitch 10-pin(2x5) Header Post=5.84mm Tail=3.05mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1-10PA-2.54DSA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007602652</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25mm pitch CON 2-pin, Throgh hole  type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25x3.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>53047-0210</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005634306</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control MCU에서도 사용 : 2배 구매</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57102-G06-20LF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00mm pitch 40-pin(20x2) Header Post=4mm Tail=2.5mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005013055</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>YST-1502</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P000096310</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P005745361 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABM3-8.000MHZ-D2Y-T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYSTAL 8.0000MHZ 18PF SMD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008255995</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1225-1205</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.54mm pitch 10-pin(2x5) Header Post=6.0mm Tail=3.0mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P005666489 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15134-0201</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER CORD, 2P CRIMP SOCKET, 100MM, BLK - Ass'y Cable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P007557469</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1320-1220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00mm pitch 40-pin(20x2) Header Post=3.9mm Tail=2.8mm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005675364</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2285-2-05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54mm pitch 10-pin(2x5) Header Socket 몰드 중간 돌출 타입 Straight Type </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005655491</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2343-2-20-G0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00mm pitch 40-pin(20x2) Header Socket 몰드높이=4.3MM Straight Type </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P005655933</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +618,72 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -168,6 +691,199 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -175,9 +891,159 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -188,6 +1054,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,11 +1351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -501,12 +1370,12 @@
     <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -544,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5">
         <v>1</v>
       </c>
@@ -585,7 +1454,7 @@
         <v>2441500</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>2</v>
       </c>
@@ -624,7 +1493,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>3</v>
       </c>
@@ -671,12 +1540,1262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.875" customWidth="1"/>
+    <col min="3" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="2:21" s="6" customFormat="1">
+      <c r="D3" s="41"/>
+      <c r="P3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="6" customFormat="1" ht="17.25" thickBot="1">
+      <c r="D4" s="41"/>
+      <c r="N4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="6" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" s="6" customFormat="1">
+      <c r="B6" s="10">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="14">
+        <v>20</v>
+      </c>
+      <c r="N6" s="14">
+        <v>20</v>
+      </c>
+      <c r="O6" s="13">
+        <f>N6*H6</f>
+        <v>40</v>
+      </c>
+      <c r="P6" s="11">
+        <f>H6*P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11">
+        <v>20</v>
+      </c>
+      <c r="S6" s="14">
+        <f>N6*R6</f>
+        <v>400</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" s="6" customFormat="1">
+      <c r="B7" s="10">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="14">
+        <v>30</v>
+      </c>
+      <c r="N7" s="14">
+        <v>30</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" ref="O7:O17" si="0">N7*H7</f>
+        <v>60</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" ref="P7:P17" si="1">H7*P$4</f>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
+      <c r="R7" s="11">
+        <v>20</v>
+      </c>
+      <c r="S7" s="14">
+        <f>N7*R7</f>
+        <v>600</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" s="6" customFormat="1">
+      <c r="B8" s="10">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="14">
+        <v>20</v>
+      </c>
+      <c r="N8" s="14">
+        <v>20</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>10</v>
+      </c>
+      <c r="R8" s="11">
+        <v>10</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" ref="S8:S17" si="2">N8*R8</f>
+        <v>200</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" s="6" customFormat="1">
+      <c r="B9" s="10">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="14">
+        <v>430</v>
+      </c>
+      <c r="N9" s="14">
+        <v>380</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11">
+        <v>20</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" s="6" customFormat="1">
+      <c r="B10" s="17">
+        <v>14</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="14">
+        <v>2760</v>
+      </c>
+      <c r="N10" s="13">
+        <v>2340</v>
+      </c>
+      <c r="O10" s="13">
+        <f t="shared" si="0"/>
+        <v>2340</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10" s="11">
+        <v>15</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="2"/>
+        <v>35100</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" s="6" customFormat="1">
+      <c r="B11" s="17">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1170</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1170</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11">
+        <v>15</v>
+      </c>
+      <c r="S11" s="14">
+        <f t="shared" si="2"/>
+        <v>17550</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" s="6" customFormat="1">
+      <c r="B12" s="17">
+        <v>18</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="14">
+        <v>890</v>
+      </c>
+      <c r="N12" s="13">
+        <v>890</v>
+      </c>
+      <c r="O12" s="13">
+        <f>N12*H12</f>
+        <v>890</v>
+      </c>
+      <c r="P12" s="11">
+        <f>H12*P$4</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>1</v>
+      </c>
+      <c r="R12" s="11">
+        <v>2</v>
+      </c>
+      <c r="S12" s="14">
+        <f>N12*R12</f>
+        <v>1780</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" s="6" customFormat="1">
+      <c r="B13" s="17">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="14">
+        <v>50</v>
+      </c>
+      <c r="N13" s="11">
+        <v>50</v>
+      </c>
+      <c r="O13" s="13">
+        <f>N13*H13</f>
+        <v>50</v>
+      </c>
+      <c r="P13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>100</v>
+      </c>
+      <c r="R13" s="11">
+        <v>100</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" ref="S13" si="3">N13*R13</f>
+        <v>5000</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" s="6" customFormat="1">
+      <c r="B14" s="17">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="14">
+        <v>4180</v>
+      </c>
+      <c r="N14" s="13">
+        <v>4180</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" si="0"/>
+        <v>8360</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11">
+        <v>4</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="2"/>
+        <v>16720</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" s="6" customFormat="1">
+      <c r="B15" s="17">
+        <v>19</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="14">
+        <v>100</v>
+      </c>
+      <c r="N15" s="13">
+        <v>100</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>10</v>
+      </c>
+      <c r="R15" s="11">
+        <v>10</v>
+      </c>
+      <c r="S15" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" s="6" customFormat="1">
+      <c r="B16" s="23">
+        <v>20</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="14">
+        <v>840</v>
+      </c>
+      <c r="N16" s="26">
+        <v>840</v>
+      </c>
+      <c r="O16" s="26">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>1</v>
+      </c>
+      <c r="R16" s="24">
+        <v>5</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" s="6" customFormat="1">
+      <c r="B17" s="10">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="14">
+        <v>720</v>
+      </c>
+      <c r="N17" s="13">
+        <v>590</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>10</v>
+      </c>
+      <c r="S17" s="14">
+        <f t="shared" si="2"/>
+        <v>5900</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="47" customFormat="1">
+      <c r="D18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="2:21" s="47" customFormat="1" ht="17.25" thickBot="1">
+      <c r="D19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="51"/>
+    </row>
+    <row r="20" spans="2:21" s="6" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="6" customFormat="1">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="28">
+        <v>30</v>
+      </c>
+      <c r="N21" s="9">
+        <v>30</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" ref="O21:O25" si="4">N21*H21</f>
+        <v>30</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21:P23" si="5">H21*P$4</f>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>10</v>
+      </c>
+      <c r="S21" s="28">
+        <f t="shared" ref="S21:S25" si="6">N21*R21</f>
+        <v>300</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="6" customFormat="1">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14">
+        <v>1670</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1670</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="4"/>
+        <v>1670</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>1</v>
+      </c>
+      <c r="R22" s="11">
+        <v>5</v>
+      </c>
+      <c r="S22" s="14">
+        <f t="shared" si="6"/>
+        <v>8350</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="6" customFormat="1">
+      <c r="B23" s="10"/>
+      <c r="C23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="14">
+        <v>290</v>
+      </c>
+      <c r="N23" s="13">
+        <v>290</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>20</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="6"/>
+        <v>5800</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="6" customFormat="1">
+      <c r="B24" s="10"/>
+      <c r="C24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="14">
+        <v>660</v>
+      </c>
+      <c r="N24" s="13">
+        <v>660</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11">
+        <v>4</v>
+      </c>
+      <c r="S24" s="31">
+        <f t="shared" si="6"/>
+        <v>2640</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="6" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="37">
+        <v>1200</v>
+      </c>
+      <c r="N25" s="38">
+        <v>1200</v>
+      </c>
+      <c r="O25" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="36">
+        <v>1</v>
+      </c>
+      <c r="R25" s="36">
+        <v>2</v>
+      </c>
+      <c r="S25" s="39">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+      <c r="T25" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="6" customFormat="1">
+      <c r="D26" s="41"/>
+      <c r="O26" s="42">
+        <f>SUM(O6:O17)</f>
+        <v>14840</v>
+      </c>
+      <c r="S26" s="42">
+        <f>SUM(S6:S25)</f>
+        <v>115540</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" s="43" customFormat="1">
+      <c r="B27" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="O27" s="45">
+        <f>O26*0.1</f>
+        <v>1484</v>
+      </c>
+      <c r="S27" s="45">
+        <f>S26*0.1</f>
+        <v>11554</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="6" customFormat="1">
+      <c r="D28" s="41"/>
+      <c r="O28" s="46">
+        <f>O26+O27</f>
+        <v>16324</v>
+      </c>
+      <c r="S28" s="46">
+        <f>S26+S27</f>
+        <v>127094</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="6" customFormat="1">
+      <c r="D29" s="41"/>
+      <c r="O29" s="46">
+        <f>O27+O28</f>
+        <v>17808</v>
+      </c>
+      <c r="S29" s="46">
+        <f>S27+S28</f>
+        <v>138648</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,7 +2807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
